--- a/scraper/top_remaining_spreadsheets_states/top_remaining_TX.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_TX.xlsx
@@ -41,21 +41,21 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Super 7s Jackpot</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
     <t>Lucky 8s Doubler</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>Winter Cash</t>
   </si>
   <si>
     <t>Find The 9s</t>
   </si>
   <si>
-    <t>Winter Cash</t>
-  </si>
-  <si>
-    <t>Super 7s Jackpot</t>
-  </si>
-  <si>
     <t>Weekly Half Grand</t>
   </si>
   <si>
@@ -89,18 +89,18 @@
     <t>Break the Bank</t>
   </si>
   <si>
+    <t>Money Multipler</t>
+  </si>
+  <si>
+    <t>Aces and 8s</t>
+  </si>
+  <si>
+    <t>Weekly Grand</t>
+  </si>
+  <si>
     <t>$30,000 Jackpot</t>
   </si>
   <si>
-    <t>Aces and 8s</t>
-  </si>
-  <si>
-    <t>Money Multipler</t>
-  </si>
-  <si>
-    <t>Weekly Grand</t>
-  </si>
-  <si>
     <t>Veterans Cash</t>
   </si>
   <si>
@@ -119,15 +119,15 @@
     <t>30X</t>
   </si>
   <si>
+    <t>Cinco Connect</t>
+  </si>
+  <si>
     <t>Texas Loteria</t>
   </si>
   <si>
     <t>$50,000 Bonus Cashword</t>
   </si>
   <si>
-    <t>Cinco Connect</t>
-  </si>
-  <si>
     <t>Holiday Word Blast</t>
   </si>
   <si>
@@ -137,33 +137,33 @@
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Diamond Mine 9X</t>
+  </si>
+  <si>
+    <t>Super Loteria</t>
+  </si>
+  <si>
+    <t>Frogger</t>
+  </si>
+  <si>
+    <t>Multiplier Mania</t>
+  </si>
+  <si>
     <t>Bonus Break the Bank</t>
   </si>
   <si>
-    <t>Diamond Mine 9X</t>
-  </si>
-  <si>
-    <t>Super Loteria</t>
-  </si>
-  <si>
-    <t>Frogger</t>
-  </si>
-  <si>
-    <t>Multiplier Mania</t>
-  </si>
-  <si>
     <t>Bonus Break The Bank</t>
   </si>
   <si>
+    <t>Golden Nugget</t>
+  </si>
+  <si>
     <t>Cowboys</t>
   </si>
   <si>
     <t>Money Madness</t>
   </si>
   <si>
-    <t>Golden Nugget</t>
-  </si>
-  <si>
     <t>50X</t>
   </si>
   <si>
@@ -173,21 +173,21 @@
     <t>Hot 5s Hot Streak</t>
   </si>
   <si>
+    <t>Día De Los Muertos</t>
+  </si>
+  <si>
     <t>Crazy Cash Blowout</t>
   </si>
   <si>
-    <t>Día De Los Muertos</t>
-  </si>
-  <si>
     <t>Houston Texans</t>
   </si>
   <si>
+    <t>Lucky 7s Hunt</t>
+  </si>
+  <si>
     <t>Super Crossword</t>
   </si>
   <si>
-    <t>Lucky 7s Hunt</t>
-  </si>
-  <si>
     <t>5X El Dinero</t>
   </si>
   <si>
@@ -206,31 +206,31 @@
     <t>2019-02-28</t>
   </si>
   <si>
+    <t>Red Hot 7s</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
     <t>50X Fast Cash</t>
   </si>
   <si>
     <t>2019-02-10</t>
   </si>
   <si>
-    <t>Red Hot 7s</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-  </si>
-  <si>
     <t>$10.00 Games</t>
   </si>
   <si>
     <t>The Glitter Is Gold</t>
   </si>
   <si>
+    <t>$250,000 50X Cashword</t>
+  </si>
+  <si>
+    <t>100X</t>
+  </si>
+  <si>
     <t>Casino Action Super Ticket™</t>
-  </si>
-  <si>
-    <t>100X</t>
-  </si>
-  <si>
-    <t>$250,000 50X Cashword</t>
   </si>
   <si>
     <t>Mega Loteria</t>
@@ -683,10 +683,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>2091</v>
+        <v>2117</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -703,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2130</v>
+        <v>2091</v>
       </c>
       <c r="E3">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -743,10 +743,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>2117</v>
+        <v>2130</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -826,7 +826,7 @@
         <v>2071</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -923,10 +923,10 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>2133</v>
+        <v>2108</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -963,10 +963,10 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>2108</v>
+        <v>2078</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -983,10 +983,10 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>2078</v>
+        <v>2133</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1106,7 +1106,7 @@
         <v>2035</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1143,10 +1143,10 @@
         <v>34</v>
       </c>
       <c r="D25">
-        <v>1828</v>
+        <v>2031</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1163,10 +1163,10 @@
         <v>35</v>
       </c>
       <c r="D26">
-        <v>2052</v>
+        <v>1828</v>
       </c>
       <c r="E26">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1183,10 +1183,10 @@
         <v>36</v>
       </c>
       <c r="D27">
-        <v>2031</v>
+        <v>2052</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1243,13 +1243,13 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>1862</v>
+        <v>2090</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>2090</v>
+        <v>1877</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1283,10 +1283,10 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>1877</v>
+        <v>2049</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1303,10 +1303,10 @@
         <v>43</v>
       </c>
       <c r="D33">
-        <v>2049</v>
+        <v>2106</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1323,13 +1323,13 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>2106</v>
+        <v>1862</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>46</v>
       </c>
       <c r="D36">
-        <v>2069</v>
+        <v>2116</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1383,10 +1383,10 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <v>2102</v>
+        <v>2069</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1403,10 +1403,10 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>2116</v>
+        <v>2102</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1483,10 +1483,10 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>2125</v>
+        <v>2092</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1503,10 +1503,10 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>2092</v>
+        <v>2125</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1520,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <v>2074</v>
@@ -1563,10 +1563,10 @@
         <v>55</v>
       </c>
       <c r="D46">
-        <v>2082</v>
+        <v>2055</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1583,10 +1583,10 @@
         <v>56</v>
       </c>
       <c r="D47">
-        <v>2055</v>
+        <v>2082</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1703,7 +1703,7 @@
         <v>63</v>
       </c>
       <c r="D53">
-        <v>2063</v>
+        <v>2095</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>65</v>
       </c>
       <c r="D54">
-        <v>2095</v>
+        <v>2063</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>69</v>
       </c>
       <c r="D56">
-        <v>2076</v>
+        <v>2083</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1803,7 +1803,7 @@
         <v>71</v>
       </c>
       <c r="D58">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>2103</v>
       </c>
       <c r="E62">
-        <v>946</v>
+        <v>896</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -2086,7 +2086,7 @@
         <v>2093</v>
       </c>
       <c r="E72">
-        <v>130237</v>
+        <v>128186</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_TX.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_TX.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>STATE</t>
   </si>
@@ -44,22 +44,28 @@
     <t>Super 7s Jackpot</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Winter Cash</t>
+  </si>
+  <si>
+    <t>Weekly Half Grand</t>
+  </si>
+  <si>
+    <t>Cash Payout</t>
+  </si>
+  <si>
+    <t>10X®</t>
+  </si>
+  <si>
+    <t>Find The 9s</t>
   </si>
   <si>
     <t>Lucky 8s Doubler</t>
   </si>
   <si>
-    <t>Winter Cash</t>
-  </si>
-  <si>
-    <t>Find The 9s</t>
-  </si>
-  <si>
-    <t>Weekly Half Grand</t>
-  </si>
-  <si>
-    <t>10X®</t>
+    <t>2019-04-03</t>
   </si>
   <si>
     <t>Hot 7's</t>
@@ -68,69 +74,57 @@
     <t>Lucky Dog</t>
   </si>
   <si>
-    <t>Double Doubler</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
-  </si>
-  <si>
-    <t>10 Grand</t>
-  </si>
-  <si>
-    <t>2019-02-17</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>Hunting For Hundred$</t>
   </si>
   <si>
+    <t>Weekly Grand</t>
+  </si>
+  <si>
+    <t>Money Multipler</t>
+  </si>
+  <si>
+    <t>Veterans Cash</t>
+  </si>
+  <si>
     <t>Break the Bank</t>
   </si>
   <si>
-    <t>Money Multipler</t>
+    <t>Blackout Bingo</t>
+  </si>
+  <si>
+    <t>Triple Play</t>
+  </si>
+  <si>
+    <t>$30,000 Jackpot</t>
   </si>
   <si>
     <t>Aces and 8s</t>
   </si>
   <si>
-    <t>Weekly Grand</t>
-  </si>
-  <si>
-    <t>$30,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Veterans Cash</t>
-  </si>
-  <si>
-    <t>Blackout Bingo</t>
-  </si>
-  <si>
     <t>Holiday Cash Drop</t>
   </si>
   <si>
-    <t>Double Match</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>$50,000 Bonus Cashword</t>
+  </si>
+  <si>
+    <t>Texas Loteria</t>
+  </si>
+  <si>
     <t>30X</t>
   </si>
   <si>
+    <t>Holiday Word Blast</t>
+  </si>
+  <si>
     <t>Cinco Connect</t>
   </si>
   <si>
-    <t>Texas Loteria</t>
-  </si>
-  <si>
-    <t>$50,000 Bonus Cashword</t>
-  </si>
-  <si>
-    <t>Holiday Word Blast</t>
-  </si>
-  <si>
     <t>Double Bonus Crossword</t>
   </si>
   <si>
@@ -143,79 +137,67 @@
     <t>Super Loteria</t>
   </si>
   <si>
+    <t>Bonus Break The Bank</t>
+  </si>
+  <si>
+    <t>Money Madness</t>
+  </si>
+  <si>
+    <t>Lady Luck</t>
+  </si>
+  <si>
+    <t>Multiplier Mania</t>
+  </si>
+  <si>
+    <t>Lucky 7s Hunt</t>
+  </si>
+  <si>
+    <t>Cowboys</t>
+  </si>
+  <si>
+    <t>5X El Dinero</t>
+  </si>
+  <si>
+    <t>50X</t>
+  </si>
+  <si>
+    <t>Pac-Man® Slots</t>
+  </si>
+  <si>
+    <t>Día De Los Muertos</t>
+  </si>
+  <si>
     <t>Frogger</t>
   </si>
   <si>
-    <t>Multiplier Mania</t>
-  </si>
-  <si>
-    <t>Bonus Break the Bank</t>
-  </si>
-  <si>
-    <t>Bonus Break The Bank</t>
+    <t>Hot 5s Hot Streak</t>
   </si>
   <si>
     <t>Golden Nugget</t>
   </si>
   <si>
-    <t>Cowboys</t>
-  </si>
-  <si>
-    <t>Money Madness</t>
-  </si>
-  <si>
-    <t>50X</t>
-  </si>
-  <si>
-    <t>Lady Luck</t>
-  </si>
-  <si>
-    <t>Hot 5s Hot Streak</t>
-  </si>
-  <si>
-    <t>Día De Los Muertos</t>
+    <t>Houston Texans</t>
+  </si>
+  <si>
+    <t>$500 Frenzy</t>
   </si>
   <si>
     <t>Crazy Cash Blowout</t>
   </si>
   <si>
-    <t>Houston Texans</t>
-  </si>
-  <si>
-    <t>Lucky 7s Hunt</t>
-  </si>
-  <si>
     <t>Super Crossword</t>
   </si>
   <si>
-    <t>5X El Dinero</t>
+    <t>Bonus Ball Bingo</t>
   </si>
   <si>
     <t>$25,000,000 Payout</t>
   </si>
   <si>
-    <t>Bonus Ball Bingo</t>
-  </si>
-  <si>
     <t>Holiday Greetings</t>
   </si>
   <si>
-    <t>Crossword Connect</t>
-  </si>
-  <si>
-    <t>2019-02-28</t>
-  </si>
-  <si>
-    <t>Red Hot 7s</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-  </si>
-  <si>
-    <t>50X Fast Cash</t>
-  </si>
-  <si>
-    <t>2019-02-10</t>
+    <t>2019-03-21</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -230,27 +212,27 @@
     <t>100X</t>
   </si>
   <si>
+    <t>Mega Loteria</t>
+  </si>
+  <si>
+    <t>$200 Million Cash Explosion®</t>
+  </si>
+  <si>
+    <t>Cash Blast</t>
+  </si>
+  <si>
     <t>Casino Action Super Ticket™</t>
   </si>
   <si>
-    <t>Mega Loteria</t>
-  </si>
-  <si>
-    <t>$200 Million Cash Explosion®</t>
-  </si>
-  <si>
-    <t>Cash Blast</t>
+    <t>Season's Greetings</t>
+  </si>
+  <si>
+    <t>$200 Million Payout</t>
   </si>
   <si>
     <t>The Big Ticket</t>
   </si>
   <si>
-    <t>Season's Greetings</t>
-  </si>
-  <si>
-    <t>$200 Million Payout</t>
-  </si>
-  <si>
     <t>Super 7's</t>
   </si>
   <si>
@@ -263,28 +245,28 @@
     <t>100X The Cash</t>
   </si>
   <si>
+    <t>Million Dollar Loteria</t>
+  </si>
+  <si>
     <t>$100 Million Texas Riches</t>
   </si>
   <si>
-    <t>Million Dollar Loteria</t>
-  </si>
-  <si>
     <t>Instant Millionaire</t>
   </si>
   <si>
+    <t>200X</t>
+  </si>
+  <si>
     <t>$100 or $200</t>
   </si>
   <si>
+    <t>$500,000,000 Cash</t>
+  </si>
+  <si>
+    <t>Millionaire Club</t>
+  </si>
+  <si>
     <t>Stacks of Cash</t>
-  </si>
-  <si>
-    <t>$500,000,000 Cash</t>
-  </si>
-  <si>
-    <t>Millionaire Club</t>
-  </si>
-  <si>
-    <t>200X</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -644,7 +626,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +668,7 @@
         <v>2117</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -703,10 +685,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -723,10 +705,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>2097</v>
+        <v>2068</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -743,10 +725,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="E5">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -763,10 +745,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>2068</v>
+        <v>2111</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -783,10 +765,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>2111</v>
+        <v>2130</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -803,13 +785,13 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2012</v>
+        <v>2091</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -820,16 +802,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>2012</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9">
-        <v>2071</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -840,16 +822,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>2064</v>
+        <v>2071</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -857,19 +839,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>2086</v>
+        <v>2022</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -877,16 +859,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>777</v>
       </c>
       <c r="D12">
-        <v>2022</v>
+        <v>2151</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -897,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
       <c r="D13">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -917,16 +899,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>2108</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -937,13 +919,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>2041</v>
+        <v>2094</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -957,16 +939,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -977,16 +959,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>2133</v>
+        <v>2079</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -997,16 +979,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>777</v>
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>2151</v>
+        <v>2139</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1017,16 +999,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>2094</v>
+        <v>2133</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1037,16 +1019,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>2079</v>
+        <v>2041</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1057,16 +1039,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>2101</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1077,19 +1059,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>777</v>
       </c>
       <c r="D22">
-        <v>2048</v>
+        <v>2035</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1097,16 +1079,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <v>777</v>
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>2035</v>
+        <v>2052</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1117,16 +1099,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
       <c r="D24">
-        <v>2109</v>
+        <v>1828</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1137,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>2031</v>
+        <v>2109</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1157,16 +1139,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>1828</v>
+        <v>2098</v>
       </c>
       <c r="E26">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1177,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>2052</v>
+        <v>2031</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1197,13 +1179,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>2098</v>
+        <v>2081</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1217,13 +1199,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29">
-        <v>2081</v>
+        <v>2090</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1237,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
       <c r="D30">
-        <v>2090</v>
+        <v>1877</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1257,13 +1239,13 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>1877</v>
+        <v>2017</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1277,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>2049</v>
+        <v>2102</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1297,13 +1279,13 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>2106</v>
+        <v>2121</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1317,19 +1299,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>1862</v>
+        <v>2106</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1337,16 +1319,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>2017</v>
+        <v>2055</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1357,16 +1339,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>2116</v>
+        <v>2069</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1377,16 +1359,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>2069</v>
+        <v>2110</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1397,16 +1379,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>2102</v>
+        <v>2112</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1417,13 +1399,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>2112</v>
+        <v>2066</v>
       </c>
       <c r="E39">
         <v>7</v>
@@ -1437,16 +1419,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>2121</v>
+        <v>2092</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1457,19 +1439,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41">
-        <v>2118</v>
+        <v>2049</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1477,16 +1459,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>2092</v>
+        <v>2118</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1497,16 +1479,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1517,16 +1499,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1537,16 +1519,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>2070</v>
+        <v>2129</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1557,16 +1539,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>2055</v>
+        <v>2134</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>7253</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1577,16 +1559,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>2082</v>
+        <v>2125</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1597,16 +1579,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
       <c r="D48">
-        <v>2110</v>
+        <v>2074</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1617,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1637,10 +1619,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>2042</v>
@@ -1657,16 +1639,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51">
-        <v>2099</v>
+        <v>2087</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1677,19 +1659,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D52">
-        <v>1859</v>
+        <v>2099</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1697,19 +1679,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>2095</v>
+        <v>2075</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1717,19 +1699,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>2063</v>
+        <v>2083</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1737,16 +1719,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D55">
-        <v>2075</v>
+        <v>2113</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1757,16 +1739,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1777,16 +1759,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>777</v>
       </c>
       <c r="D57">
-        <v>2113</v>
+        <v>2059</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1797,16 +1779,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D58">
-        <v>2076</v>
+        <v>2056</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1817,16 +1799,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
         <v>67</v>
       </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
       <c r="D59">
-        <v>2084</v>
+        <v>2103</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>561</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1837,16 +1819,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60">
-        <v>777</v>
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
       </c>
       <c r="D60">
-        <v>2059</v>
+        <v>2076</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1857,16 +1839,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D61">
-        <v>2056</v>
+        <v>2096</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1877,16 +1859,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>2103</v>
+        <v>1759</v>
       </c>
       <c r="E62">
-        <v>896</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1897,16 +1879,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D63">
         <v>2122</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1917,16 +1899,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D64">
-        <v>2096</v>
+        <v>2018</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1937,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D65">
-        <v>1759</v>
+        <v>2014</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1957,16 +1939,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>2018</v>
+        <v>2047</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1977,16 +1959,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D67">
-        <v>2014</v>
+        <v>2100</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1997,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D68">
-        <v>2047</v>
+        <v>1884</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2017,16 +1999,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D69">
-        <v>1884</v>
+        <v>1838</v>
       </c>
       <c r="E69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2037,16 +2019,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D70">
-        <v>2100</v>
+        <v>2135</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2057,16 +2039,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
         <v>79</v>
       </c>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
       <c r="D71">
-        <v>1838</v>
+        <v>2107</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2077,16 +2059,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D72">
         <v>2093</v>
       </c>
       <c r="E72">
-        <v>128186</v>
+        <v>116074</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2097,16 +2079,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D73">
-        <v>2067</v>
+        <v>1671</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2117,16 +2099,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D74">
-        <v>1671</v>
+        <v>2077</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2137,16 +2119,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D75">
-        <v>2077</v>
+        <v>2067</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2157,16 +2139,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <v>2107</v>
+        <v>2053</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2177,16 +2159,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D77">
-        <v>2053</v>
+        <v>2114</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2197,16 +2179,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D78">
-        <v>2114</v>
+        <v>2030</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2217,16 +2199,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D79">
-        <v>2030</v>
+        <v>2104</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2237,38 +2219,18 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D80">
-        <v>2104</v>
+        <v>2057</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81">
-        <v>2057</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
         <v>9</v>
       </c>
     </row>
